--- a/Team-Data/2014-15/2-6-2014-15.xlsx
+++ b/Team-Data/2014-15/2-6-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" t="n">
         <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.824</v>
+        <v>0.82</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
@@ -684,31 +751,31 @@
         <v>38.1</v>
       </c>
       <c r="J2" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K2" t="n">
         <v>0.472</v>
       </c>
       <c r="L2" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M2" t="n">
         <v>25.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.391</v>
+        <v>0.388</v>
       </c>
       <c r="O2" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="P2" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.77</v>
       </c>
       <c r="R2" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S2" t="n">
         <v>32.5</v>
@@ -723,7 +790,7 @@
         <v>14.1</v>
       </c>
       <c r="W2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
         <v>4.5</v>
@@ -738,22 +805,22 @@
         <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.8</v>
+        <v>103.4</v>
       </c>
       <c r="AC2" t="n">
         <v>6.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="n">
         <v>24</v>
@@ -768,22 +835,22 @@
         <v>3</v>
       </c>
       <c r="AL2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>9</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>7</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
@@ -807,13 +874,13 @@
         <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
         <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>0.388</v>
+        <v>0.375</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -875,16 +942,16 @@
         <v>7.6</v>
       </c>
       <c r="M3" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O3" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P3" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q3" t="n">
         <v>0.752</v>
@@ -893,16 +960,16 @@
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.8</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
         <v>24.6</v>
       </c>
       <c r="V3" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -914,28 +981,28 @@
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.5</v>
+        <v>-1.8</v>
       </c>
       <c r="AD3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE3" t="n">
         <v>22</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>20</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>12</v>
@@ -962,22 +1029,22 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>17</v>
@@ -986,19 +1053,19 @@
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
         <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.429</v>
+        <v>0.417</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
@@ -1048,49 +1115,49 @@
         <v>36.5</v>
       </c>
       <c r="J4" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>6.7</v>
       </c>
       <c r="M4" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.322</v>
+        <v>0.323</v>
       </c>
       <c r="O4" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P4" t="n">
         <v>21.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R4" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
         <v>14.3</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y4" t="n">
         <v>4.5</v>
@@ -1099,43 +1166,43 @@
         <v>20.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.2</v>
+        <v>-3.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN4" t="n">
         <v>26</v>
@@ -1153,10 +1220,10 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU4" t="n">
         <v>22</v>
@@ -1165,10 +1232,10 @@
         <v>14</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AY4" t="n">
         <v>10</v>
@@ -1177,10 +1244,10 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1323,25 +1390,25 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1481,19 +1548,19 @@
         <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1514,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="AR6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1523,10 +1590,10 @@
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -1576,61 +1643,61 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="n">
         <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.596</v>
+        <v>0.608</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J7" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K7" t="n">
         <v>0.453</v>
       </c>
       <c r="L7" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="N7" t="n">
         <v>0.35</v>
       </c>
       <c r="O7" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P7" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R7" t="n">
         <v>11.5</v>
       </c>
       <c r="S7" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T7" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U7" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
@@ -1645,28 +1712,28 @@
         <v>18.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB7" t="n">
         <v>101.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>18</v>
@@ -1681,10 +1748,10 @@
         <v>9</v>
       </c>
       <c r="AM7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>5</v>
@@ -1693,10 +1760,10 @@
         <v>7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
         <v>23</v>
@@ -1705,7 +1772,7 @@
         <v>18</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
@@ -1714,7 +1781,7 @@
         <v>18</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY7" t="n">
         <v>17</v>
@@ -1723,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="n">
         <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.654</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,7 +1843,7 @@
         <v>40.3</v>
       </c>
       <c r="J8" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.469</v>
@@ -1785,40 +1852,40 @@
         <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.358</v>
+        <v>0.359</v>
       </c>
       <c r="O8" t="n">
         <v>16.7</v>
       </c>
       <c r="P8" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
         <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.3</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
         <v>12.3</v>
       </c>
       <c r="W8" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
         <v>3.6</v>
@@ -1827,25 +1894,25 @@
         <v>19.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>14</v>
@@ -1860,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
         <v>4</v>
@@ -1872,13 +1939,13 @@
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
         <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>0.373</v>
+        <v>0.38</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J9" t="n">
         <v>86.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L9" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
         <v>23.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="O9" t="n">
         <v>18.4</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q9" t="n">
         <v>0.741</v>
@@ -2009,34 +2076,34 @@
         <v>23.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.3</v>
+        <v>100.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="n">
         <v>21</v>
       </c>
-      <c r="AF9" t="n">
-        <v>23</v>
-      </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK9" t="n">
         <v>27</v>
@@ -2051,16 +2118,16 @@
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2072,25 +2139,25 @@
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>23</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="n">
         <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>0.392</v>
+        <v>0.38</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,67 +2207,67 @@
         <v>36.7</v>
       </c>
       <c r="J10" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M10" t="n">
         <v>25.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.344</v>
+        <v>0.348</v>
       </c>
       <c r="O10" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P10" t="n">
         <v>23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.706</v>
+        <v>0.705</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T10" t="n">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="U10" t="n">
         <v>21.4</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y10" t="n">
         <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB10" t="n">
         <v>98.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
@@ -2218,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2227,16 +2294,16 @@
         <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,28 +2312,28 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW10" t="n">
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA10" t="n">
         <v>23</v>
@@ -2275,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="n">
         <v>39</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="J11" t="n">
-        <v>87.09999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="L11" t="n">
         <v>10.5</v>
       </c>
       <c r="M11" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R11" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="T11" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U11" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="V11" t="n">
         <v>14.9</v>
       </c>
       <c r="W11" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X11" t="n">
         <v>6.2</v>
@@ -2370,19 +2437,19 @@
         <v>3.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>111.5</v>
+        <v>111.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2391,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="AG11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2412,31 +2479,31 @@
         <v>3</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
         <v>18</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -2501,46 +2568,46 @@
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J12" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="M12" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T12" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V12" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
         <v>9.800000000000001</v>
@@ -2552,19 +2619,19 @@
         <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2579,13 +2646,13 @@
         <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>14</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,25 +2664,25 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,22 +2691,22 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
         <v>32</v>
       </c>
       <c r="G13" t="n">
-        <v>0.373</v>
+        <v>0.36</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,10 +2753,10 @@
         <v>36.2</v>
       </c>
       <c r="J13" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L13" t="n">
         <v>6.8</v>
@@ -2698,31 +2765,31 @@
         <v>20.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.329</v>
+        <v>0.328</v>
       </c>
       <c r="O13" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P13" t="n">
         <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R13" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S13" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T13" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W13" t="n">
         <v>6.1</v>
@@ -2734,28 +2801,28 @@
         <v>4.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA13" t="n">
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG13" t="n">
         <v>23</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>22</v>
       </c>
       <c r="AH13" t="n">
         <v>17</v>
@@ -2773,7 +2840,7 @@
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>24</v>
@@ -2782,31 +2849,31 @@
         <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR13" t="n">
         <v>15</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>16</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU13" t="n">
         <v>20</v>
       </c>
       <c r="AV13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY13" t="n">
         <v>16</v>
@@ -2815,13 +2882,13 @@
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.647</v>
+        <v>0.66</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
         <v>9.800000000000001</v>
@@ -2880,31 +2947,31 @@
         <v>26.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P14" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.741</v>
+        <v>0.739</v>
       </c>
       <c r="R14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V14" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="W14" t="n">
         <v>7.7</v>
@@ -2919,28 +2986,28 @@
         <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB14" t="n">
         <v>106.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2952,7 +3019,7 @@
         <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM14" t="n">
         <v>6</v>
@@ -2961,13 +3028,13 @@
         <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2979,13 +3046,13 @@
         <v>24</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
         <v>12</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -3044,73 +3111,73 @@
         <v>0.265</v>
       </c>
       <c r="H15" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>85.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O15" t="n">
-        <v>18</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.1</v>
+        <v>24.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.748</v>
       </c>
       <c r="R15" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,67 +3189,67 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
         <v>25</v>
       </c>
       <c r="AL15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM15" t="n">
         <v>23</v>
       </c>
-      <c r="AM15" t="n">
-        <v>22</v>
-      </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR15" t="n">
         <v>9</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>8</v>
       </c>
       <c r="AS15" t="n">
         <v>18</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>7</v>
       </c>
       <c r="AW15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="BB15" t="n">
         <v>18</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
         <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.74</v>
+        <v>0.755</v>
       </c>
       <c r="H16" t="n">
         <v>48.9</v>
@@ -3232,52 +3299,52 @@
         <v>38.6</v>
       </c>
       <c r="J16" t="n">
-        <v>83.09999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
         <v>15.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O16" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.778</v>
+        <v>0.779</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.9</v>
+        <v>43.2</v>
       </c>
       <c r="U16" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W16" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z16" t="n">
         <v>19.4</v>
@@ -3286,13 +3353,13 @@
         <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>6</v>
@@ -3334,19 +3401,19 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AS16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3361,10 +3428,10 @@
         <v>10</v>
       </c>
       <c r="BA16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB16" t="n">
         <v>11</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>13</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="n">
         <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.42</v>
+        <v>0.429</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3414,37 +3481,37 @@
         <v>34.2</v>
       </c>
       <c r="J17" t="n">
-        <v>75.09999999999999</v>
+        <v>75</v>
       </c>
       <c r="K17" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L17" t="n">
         <v>6.9</v>
       </c>
       <c r="M17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N17" t="n">
         <v>0.34</v>
       </c>
       <c r="O17" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S17" t="n">
         <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="U17" t="n">
         <v>19.9</v>
@@ -3462,28 +3529,28 @@
         <v>4.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>92.40000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,10 +3574,10 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>25</v>
@@ -3528,13 +3595,13 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
       </c>
       <c r="AX17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>7</v>
@@ -3543,13 +3610,13 @@
         <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>29</v>
       </c>
       <c r="BC17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -3578,43 +3645,43 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="n">
         <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>0.54</v>
+        <v>0.551</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>38</v>
+        <v>37.8</v>
       </c>
       <c r="J18" t="n">
-        <v>81.5</v>
+        <v>81.2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.376</v>
+        <v>0.379</v>
       </c>
       <c r="O18" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
         <v>0.77</v>
@@ -3629,16 +3696,16 @@
         <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V18" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="W18" t="n">
         <v>9.6</v>
       </c>
       <c r="X18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y18" t="n">
         <v>4.5</v>
@@ -3647,16 +3714,16 @@
         <v>22.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3665,28 +3732,28 @@
         <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK18" t="n">
         <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3695,13 +3762,13 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
       </c>
       <c r="AS18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3722,10 +3789,10 @@
         <v>11</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2</v>
+        <v>0.184</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J19" t="n">
         <v>84.3</v>
@@ -3787,19 +3854,19 @@
         <v>5.1</v>
       </c>
       <c r="M19" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.338</v>
+        <v>0.339</v>
       </c>
       <c r="O19" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P19" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R19" t="n">
         <v>12</v>
@@ -3811,13 +3878,13 @@
         <v>40.8</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X19" t="n">
         <v>4</v>
@@ -3826,34 +3893,34 @@
         <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
         <v>21.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
         <v>12</v>
@@ -3874,10 +3941,10 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR19" t="n">
         <v>5</v>
@@ -3892,16 +3959,16 @@
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>7</v>
       </c>
       <c r="AX19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY19" t="n">
         <v>27</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>28</v>
       </c>
       <c r="AZ19" t="n">
         <v>11</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -3960,73 +4027,73 @@
         <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.90000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.351</v>
+        <v>0.345</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="S20" t="n">
         <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="U20" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA20" t="n">
         <v>18.9</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -4041,61 +4108,61 @@
         <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>12</v>
       </c>
-      <c r="AP20" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ20" t="n">
+      <c r="AR20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT20" t="n">
         <v>9</v>
       </c>
-      <c r="AR20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>10</v>
-      </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
       </c>
       <c r="BB20" t="n">
+        <v>16</v>
+      </c>
+      <c r="BC20" t="n">
         <v>15</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>16</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L21" t="n">
         <v>7.4</v>
       </c>
       <c r="M21" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.358</v>
+        <v>0.361</v>
       </c>
       <c r="O21" t="n">
         <v>13.3</v>
@@ -4163,10 +4230,10 @@
         <v>17.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S21" t="n">
         <v>29.2</v>
@@ -4175,10 +4242,10 @@
         <v>39.9</v>
       </c>
       <c r="U21" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W21" t="n">
         <v>7.2</v>
@@ -4187,22 +4254,22 @@
         <v>4</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
         <v>22</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.5</v>
+        <v>-7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
@@ -4223,16 +4290,16 @@
         <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM21" t="n">
         <v>20</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4265,7 +4332,7 @@
         <v>27</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
         <v>25</v>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,13 +4391,13 @@
         <v>37.4</v>
       </c>
       <c r="J22" t="n">
-        <v>84.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.441</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M22" t="n">
         <v>22.7</v>
@@ -4339,22 +4406,22 @@
         <v>0.32</v>
       </c>
       <c r="O22" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P22" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.748</v>
+        <v>0.744</v>
       </c>
       <c r="R22" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T22" t="n">
-        <v>46.4</v>
+        <v>46.6</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
@@ -4363,7 +4430,7 @@
         <v>14.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X22" t="n">
         <v>6</v>
@@ -4375,16 +4442,16 @@
         <v>22.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>16</v>
@@ -4396,16 +4463,16 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
@@ -4417,16 +4484,16 @@
         <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4438,7 +4505,7 @@
         <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>19</v>
@@ -4450,13 +4517,13 @@
         <v>12</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC22" t="n">
         <v>15</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -4491,79 +4558,79 @@
         <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.308</v>
+        <v>0.288</v>
       </c>
       <c r="H23" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J23" t="n">
         <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O23" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="P23" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
         <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.9</v>
+        <v>-6.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,28 +4639,28 @@
         <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN23" t="n">
         <v>8</v>
@@ -4605,7 +4672,7 @@
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
@@ -4617,10 +4684,10 @@
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>15</v>
@@ -4629,16 +4696,16 @@
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA23" t="n">
         <v>28</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>0.216</v>
+        <v>0.22</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4700,22 +4767,22 @@
         <v>24.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.308</v>
+        <v>0.306</v>
       </c>
       <c r="O24" t="n">
         <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.681</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="R24" t="n">
         <v>11.5</v>
       </c>
       <c r="S24" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T24" t="n">
         <v>41.9</v>
@@ -4736,19 +4803,19 @@
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>90</v>
+        <v>89.8</v>
       </c>
       <c r="AC24" t="n">
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4784,13 +4851,13 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
@@ -4811,10 +4878,10 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
         <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.549</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4873,25 +4940,25 @@
         <v>86.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L25" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M25" t="n">
-        <v>26.7</v>
+        <v>26.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O25" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P25" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R25" t="n">
         <v>10.6</v>
@@ -4906,7 +4973,7 @@
         <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W25" t="n">
         <v>8.800000000000001</v>
@@ -4918,31 +4985,31 @@
         <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>106.1</v>
+        <v>106.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
         <v>3</v>
@@ -4954,25 +5021,25 @@
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM25" t="n">
         <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS25" t="n">
         <v>19</v>
@@ -4984,7 +5051,7 @@
         <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
@@ -4993,7 +5060,7 @@
         <v>11</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>26</v>
@@ -5002,7 +5069,7 @@
         <v>14</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5148,7 +5215,7 @@
         <v>27</v>
       </c>
       <c r="AP26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5163,10 +5230,10 @@
         <v>3</v>
       </c>
       <c r="AU26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV26" t="n">
         <v>9</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>8</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5181,7 +5248,7 @@
         <v>8</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
         <v>24</v>
@@ -5369,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -5413,49 +5480,49 @@
         <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
         <v>22.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O28" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P28" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="V28" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>5.4</v>
@@ -5467,16 +5534,16 @@
         <v>19.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="AB28" t="n">
         <v>101.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5491,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5512,10 +5579,10 @@
         <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5551,7 +5618,7 @@
         <v>12</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" t="n">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.667</v>
+        <v>0.66</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
@@ -5598,31 +5665,31 @@
         <v>38.6</v>
       </c>
       <c r="J29" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M29" t="n">
         <v>25.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O29" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="P29" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R29" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S29" t="n">
         <v>30.6</v>
@@ -5631,7 +5698,7 @@
         <v>41.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
         <v>12.7</v>
@@ -5643,25 +5710,25 @@
         <v>4.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA29" t="n">
         <v>21.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>106.2</v>
+        <v>105.8</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF29" t="n">
         <v>6</v>
@@ -5673,7 +5740,7 @@
         <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
@@ -5688,7 +5755,7 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5706,7 +5773,7 @@
         <v>26</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU29" t="n">
         <v>19</v>
@@ -5718,7 +5785,7 @@
         <v>16</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
@@ -5730,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC29" t="n">
         <v>7</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" t="n">
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" t="n">
-        <v>0.34</v>
+        <v>0.347</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5792,22 +5859,22 @@
         <v>21.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O30" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P30" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R30" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T30" t="n">
         <v>42.7</v>
@@ -5828,25 +5895,25 @@
         <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE30" t="n">
         <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
         <v>25</v>
@@ -5864,7 +5931,7 @@
         <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
@@ -5873,19 +5940,19 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
@@ -5900,16 +5967,16 @@
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB30" t="n">
         <v>25</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>9</v>
@@ -6034,7 +6101,7 @@
         <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
@@ -6052,16 +6119,16 @@
         <v>28</v>
       </c>
       <c r="AN31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
       </c>
       <c r="AP31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>22</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>23</v>
@@ -6070,7 +6137,7 @@
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
@@ -6088,10 +6155,10 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-6-2014-15</t>
+          <t>2015-02-06</t>
         </is>
       </c>
     </row>
